--- a/public/assets/result/Liana_4.xlsx
+++ b/public/assets/result/Liana_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -154,13 +154,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>EKO ANDRIANTO</t>
+    <t>LIANA</t>
   </si>
 </sst>
 </file>
@@ -913,16 +910,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J13" s="5">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="K13" s="5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L13" s="5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -950,16 +947,16 @@
         <v>26</v>
       </c>
       <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5">
         <v>6</v>
       </c>
-      <c r="J14" s="5">
-        <v>17</v>
-      </c>
-      <c r="K14" s="5">
-        <v>7</v>
-      </c>
       <c r="L14" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -1061,19 +1058,19 @@
         <v>34</v>
       </c>
       <c r="I17" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J17" s="5">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="K17" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L17" s="5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17"/>
     </row>
@@ -1135,16 +1132,16 @@
         <v>24</v>
       </c>
       <c r="I19" s="5">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J19" s="5">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="K19" s="5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L19" s="5">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1172,16 +1169,16 @@
         <v>34</v>
       </c>
       <c r="I20" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J20" s="5">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="K20" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L20" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -1209,16 +1206,16 @@
         <v>26</v>
       </c>
       <c r="I21" s="5">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="J21" s="5">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="K21" s="5">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="L21" s="5">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1246,16 +1243,16 @@
         <v>24</v>
       </c>
       <c r="I22" s="5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J22" s="5">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="K22" s="5">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L22" s="5">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1283,19 +1280,19 @@
         <v>34</v>
       </c>
       <c r="I23" s="5">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J23" s="5">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="K23" s="5">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L23" s="5">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23"/>
     </row>
@@ -1344,9 +1341,7 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="K29" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="N29" s="1"/>
     </row>
@@ -1362,10 +1357,10 @@
     </row>
     <row r="32" spans="1:14">
       <c r="D32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="L32" s="4"/>
       <c r="N32" s="1"/>
